--- a/biology/Zoologie/Ghatixalus/Ghatixalus.xlsx
+++ b/biology/Zoologie/Ghatixalus/Ghatixalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ghatixalus est un genre d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ghatixalus est un genre d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois espèces de ce genre sont endémiques du Sud de l'Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois espèces de ce genre sont endémiques du Sud de l'Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (6 décembre 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (6 décembre 2015) :
 Ghatixalus asterops Biju, Roelants, &amp; Bossuyt, 2008
 Ghatixalus magnus Abraham, Mathew, Cyriac, Zachariah, Raju &amp; Zachariah, 2015
 Ghatixalus variabilis (Jerdon, 1853)</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est composé à partir de Ghat[s], en référence aux Ghâts occidentaux, et de ixalus, en référence au genre Ixalus, créé par Duméril et Bibron en 1841 et couramment utilisé dans de nombreux noms de genres de grenouilles arboricoles[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est composé à partir de Ghat[s], en référence aux Ghâts occidentaux, et de ixalus, en référence au genre Ixalus, créé par Duméril et Bibron en 1841 et couramment utilisé dans de nombreux noms de genres de grenouilles arboricoles.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Biju, Roelants &amp; Bossuyt, 2008 : Phylogenetic position of the montane treefrog Polypedates variabilis Jerdon, 1853 (Anura: Rhacophoridae), and description of a related species. Organisms Diversity &amp; Evolution, vol. 8, no 4, p. 267-276 (texte intégral).</t>
         </is>
